--- a/data/genius_Bushido_Carlo-cokxxx-nutten-4.xlsx
+++ b/data/genius_Bushido_Carlo-cokxxx-nutten-4.xlsx
@@ -456,8 +456,56 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Songtext zu „Ronin“][Part 1: Bushido &amp; Animus]Yeah! Sonny Black ist back und Hunde haben LeinenzwangHalte diese gottverdammte Szene in nur einer HandSie fragen mich, ob ich mein'n Streit mit diesen Nutten klär'Doch ich mach' aus Beef Gold, so als ob ich Nusret wärDu kannst gerne mal probier'n, ob du mich kleinkriegstFick' dein Junkie-Label und bring' Hip-Hop in die 90sFrage: Was ist eine Fotze in 'nem Livestream?Einfach eine Fotze in 'nem LivestreamFick' auf High-Society, die Szene wird jetzt abrasiertRache wird so kalt serviert, dass dein ganzer Hals erfriertInternational, fick' dein'n WinkeladvokatDenn ich breche das Genick von deinem SilbenakrobatDas ist Animus im Beastmode und Sonny bounct den FlavourSchlafe auf der Couch ein, wache auf beim MajorGruß an meine Hater, die Neider und die LügnerDas ist CCN4 und aus Feinden werden Brüder, wir sind[Hook: Bushido &amp; Animus]Ronin, deutscher Rap kriegt grade einen HerzinfarktRonin, hab' in dieses Album meinen Schmerz gepacktRonin, sie freuten sich, doch wir haben zuletzt gelachtRonin, sag, wer hätte das gedacht? Junge, wir sindRonin, deutscher Rap kriegt grade einen HerzinfarktRonin, hab' in dieses Album meinen Schmerz gepacktRonin, sie freuten sich, doch wir haben zuletzt gelachtRonin, sag, wer hätte das gedacht? Junge, wir sind Ronin
-[Part 2: Bushido &amp; Animus]Die Hymne auf der Straße für die Ghetto-KidsSpar dir deine Techno-Hits, ficke dein'n Reaction-ClipAlle sind geschockt, denn diese Szene hat uns totgesagtDavid gegen Goliath, Hater haben uns großgemachtLass sie alle lügen, denn nur so hab'n diese Toys 'ne ChancePeinlich, wenn die Interviews mehr Klicks haben als eure SongsFrage: Was ist eine Fotze, die mit Leuten kommt?Einfach eine Fotze, die mit Leuten kommtWerd' mich nicht vertragen, denn für mich ist das PrinzipsacheFans drücken die Repeat-Taste wie 'ne KriegswaffeLaufe ein mit Skimaske, Leute salutier'nMan beschützt mich nicht vor euch, sie beschützen euch vor mirBesser, wenn ihr es kapiert: Mich zu dissen ist ein EigentorOhne uns ist Rap ein Haufen Scheiße wie die Hype-AwardsGruß an die, die dachten, ein Comeback wär nicht möglichEure Könige sind tot, lang lebe der König, wir sind[Hook: Bushido &amp; Animus]Ronin, deutscher Rap kriegt grade einen HerzinfarktRonin, hab' in dieses Album meinen Schmerz gepacktRonin, sie freuten sich, doch wir haben zuletzt gelachtRonin, sag, wer hätte das gedacht? Junge, wir sindRonin, deutscher Rap kriegt grade einen HerzinfarktRonin, hab' in dieses Album meinen Schmerz gepacktRonin, sie freuten sich, doch wir haben zuletzt gelachtRonin, sag, wer hätte das gedacht? Junge, wir sind Ronin</t>
+          <t>[Songtext zu „Ronin“]
+[Part 1: Bushido &amp;Animus]
+Yeah! Sonny Black ist back und Hunde haben Leinenzwang
+Halte diese gottverdammte Szene in nur einer Hand
+Sie fragen mich, ob ich mein'n Streit mit diesen Nutten klär'Doch ich mach' aus Beef Gold, so als ob ich Nusret wär
+Du kannst gerne mal probier'n, ob du mich kleinkriegstFick' dein Junkie-Label und bring' Hip-Hop in die 90s
+Frage: Was ist eine Fotze in 'nem Livestream?Einfach eine Fotze in 'nem Livestream
+Fick' auf High-Society, die Szene wird jetzt abrasiert
+Rache wird so kalt serviert, dass dein ganzer Hals erfriert
+International, fick' dein'n Winkeladvokat
+Denn ich breche das Genick von deinem Silbenakrobat
+Das ist Animus im Beastmode und Sonny bounct den Flavour
+Schlafe auf der Couch ein, wache auf beim Major
+Gruß an meine Hater, die Neider und die Lügner
+Das ist CCN4 und aus Feinden werden Brüder, wir sind
+[Hook: Bushido &amp;Animus]
+Ronin, deutscher Rap kriegt grade einen Herzinfarkt
+Ronin, hab' in dieses Album meinen Schmerz gepackt
+Ronin, sie freuten sich, doch wir haben zuletzt gelacht
+Ronin,sag, wer hätte das gedacht? Junge, wir sind
+Ronin, deutscher Rap kriegt grade einen Herzinfarkt
+Ronin, hab' in dieses Album meinen Schmerz gepackt
+Ronin, sie freuten sich, doch wir haben zuletzt gelacht
+Ronin,sag, wer hätte das gedacht? Junge, wir sindRonin
+[Part 2: Bushido &amp;Animus]
+Die Hymne auf der Straße für die Ghetto-Kids
+Spar dir deine Techno-Hits, ficke dein'n Reaction-Clip
+Alle sind geschockt, denn diese Szene hat uns totgesagt
+David gegen Goliath, Hater haben uns großgemacht
+Lass sie alle lügen, denn nur so hab'n diese Toys 'ne Chance
+Peinlich, wenn die Interviews mehr Klicks haben als eure Songs
+Frage: Was ist eine Fotze, die mit Leuten kommt?
+Einfach eine Fotze, die mit Leuten kommt
+Werd' mich nicht vertragen, denn für mich ist das Prinzipsache
+Fans drücken die Repeat-Taste wie 'ne Kriegswaffe
+Laufe ein mit Skimaske, Leute salutier'n
+Man beschützt mich nicht vor euch, sie beschützen euch vor mir
+Besser, wenn ihr es kapiert: Mich zu dissen ist ein Eigentor
+Ohne uns ist Rap ein Haufen Scheiße wie die Hype-Awards
+Gruß an die, die dachten, ein Comeback wär nicht möglich
+Eure Könige sind tot, lang lebe der König, wir sind
+[Hook: Bushido &amp; Animus]
+Ronin, deutscher Rap kriegt grade einen Herzinfarkt
+Ronin, hab' in dieses Album meinen Schmerz gepackt
+Ronin, sie freuten sich, doch wir haben zuletzt gelacht
+Ronin, sag, wer hätte das gedacht? Junge, wir sind
+Ronin, deutscher Rap kriegt grade einen Herzinfarkt
+Ronin, hab' in dieses Album meinen Schmerz gepackt
+Ronin, sie freuten sich, doch wir haben zuletzt gelacht
+Ronin, sag, wer hätte das gedacht? Junge, wir sind Ronin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -511,8 +559,55 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Songtext zu „Blutiger Pfad“][Part 1: Bushido]Ich trag' die Tattoos nicht aus Spaß, JungeDie Beretta, sie ist scharf, JungeUnd sie schickt dich in dein Grab, JungeDer Weg des Kriegers ist kein Motto für 'nen VideodrehSondern meine Wahrheit, wann auch immer ich 'nen Spiegel seh'Sie fragen sich, wieso ich immer so verbissen binDoch sie sind alle Außenseiter und nicht mittendrinIch hatte jahrelang den Teufel im NackenSie drohen meinen Kindern jetzt mit SäureattackenWollen sie entführ'n, weil ich nicht nach ihrer Pfeife tanz'Denn für Hyänen gibt es niemals einen EinzelkampfDarum hab' ich keinerlei Vertrau'n in der HerzkammerDoch dein Junge ist zu stark für diesen Schmerz, MamaSie vergessen, wer dem Ghetto eine Seele gabDoch die Erinnerung kommt jetzt so wie ein Basey-SchlagDanke Gott für dieses Leben, und zwar jeden TagWährend ich bei Nacht mit einem Eisen durch die Gegend fahr'[Hook: Animus &amp; Bushido]Ich geh' auf Gottes blutigem PfadSie lieben meine mutige ArtAuch wenn ich vielleicht niemals einen Pulitzer hab'Steht mein Name riesengroß auf einem Ku'damm-PlakatYeah, ich geh' auf Gottes blutigem PfadSie lieben meine mutige ArtAuch wenn ich vielleicht niemals einen Pulitzer hab'Steht mein Name riesengroß auf einem Ku'damm-Plakat
-[Part 2: Animus]Ich hab' das Herz von einem Bär, JungeDiese Straße ist nicht fair, JungeStechen zu, wenn du dich wehrst, Junge„Beastmode“ war nicht einfach so mal ausgedachtSondern all die Wut, denn jeder hat über mein'n Traum gelachtEines Tages ist es für uns alle Zeit zu geh'nBist du bereit zu sterben, bist du bereit zu lebenBin so kalt, weil ich fortan versteh'Dass für sie Loyalität sich um Vorteile dreht, yeahHab' den Stern so wie ein Wappen auf dem KühlergrillWeil alte Lehrer heute so wie meine Schüler sindWurde von paar Typen in die Falle gelocktDoch die Höhen sowie Tiefen kommen alle von GottKam noch stärker zurück, sie sind jetzt alle geschocktDer lebende Beweis, dass du's schaffen kannst aus dem TrottFick' die Straße, ihr Gangster und Nutten könnt sie habenIch komm' nach Hause und nehme meine Mutter in den Arm[Hook: Animus &amp; Bushido]Ich geh' auf Gottes blutigem PfadSie lieben meine mutige ArtAuch wenn ich vielleicht niemals einen Pulitzer hab'Steht mein Name riesengroß auf einem Ku'damm-PlakatYeah, ich geh' auf Gottes blutigem PfadSie lieben meine mutige ArtAuch wenn ich vielleicht niemals einen Pulitzer hab'Steht mein Name riesengroß auf einem Ku'damm-Plakat</t>
+          <t>[Songtext zu „Blutiger Pfad“]
+[Part 1: Bushido]
+Ich trag' die Tattoos nicht aus Spaß, Junge
+DieBeretta, sie ist scharf, Junge
+Und sie schickt dich in dein Grab, Junge
+Der Weg des Kriegers ist kein Motto für 'nen Videodreh
+Sondern meine Wahrheit, wann auch immer ich 'nen Spiegel seh'
+Sie fragen sich, wieso ich immer so verbissen binDoch sie sind alle Außenseiter und nicht mittendrin
+Ich hatte jahrelang den Teufel im NackenSie drohen meinen Kindern jetzt mit Säureattacken
+Wollen sie entführ'n, weil ich nicht nach ihrer Pfeife tanz'
+Denn für Hyänen gibt es niemals einen Einzelkampf
+Darum hab' ich keinerlei Vertrau'n in der Herzkammer
+Doch dein Junge ist zu stark für diesen Schmerz, Mama
+Sie vergessen, wer dem Ghetto eine Seele gabDoch die Erinnerung kommt jetzt so wie ein Basey-Schlag
+Danke Gott für dieses Leben, und zwar jeden Tag
+Während ich bei Nacht mit einem Eisen durch die Gegend fahr'
+[Hook: Animus &amp;Bushido]
+Ich geh' auf Gottes blutigem Pfad
+Sie lieben meine mutige Art
+Auch wenn ich vielleicht niemals einen Pulitzer hab'
+Steht mein Name riesengroß auf einem Ku'damm-Plakat
+Yeah, ich geh' auf Gottes blutigem Pfad
+Sie lieben meine mutige Art
+Auch wenn ich vielleicht niemals einen Pulitzer hab'
+Steht mein Name riesengroß auf einem Ku'damm-Plakat
+[Part 2: Animus]
+Ich hab' das Herz von einem Bär, Junge
+Diese Straße ist nicht fair, Junge
+Stechen zu, wenn du dich wehrst, Junge
+„Beastmode“ war nicht einfach so mal ausgedacht
+Sondern all die Wut, denn jeder hat über mein'n Traum gelacht
+Eines Tages ist es für uns alle Zeit zu geh'n
+Bist du bereit zu sterben, bist du bereit zu leben
+Bin so kalt, weil ich fortan versteh'
+Dass für sie Loyalität sich um Vorteile dreht, yeah
+Hab' den Stern so wie ein Wappen auf dem Kühlergrill
+Weil alte Lehrer heute so wie meine Schüler sind
+Wurde von paar Typen in die Falle gelockt
+Doch die Höhen sowie Tiefen kommen alle von Gott
+Kam noch stärker zurück, sie sind jetzt alle geschockt
+Der lebende Beweis, dass du's schaffen kannst aus dem Trott
+Fick' die Straße, ihr Gangster und Nutten könnt sie haben
+Ich komm' nach Hause und nehme meine Mutter in den Arm
+[Hook: Animus &amp; Bushido]
+Ich geh' auf Gottes blutigem Pfad
+Sie lieben meine mutige Art
+Auch wenn ich vielleicht niemals einen Pulitzer hab'
+Steht mein Name riesengroß auf einem Ku'damm-Plakat
+Yeah, ich geh' auf Gottes blutigem PfadSie lieben meine mutige ArtAuch wenn ich vielleicht niemals einen Pulitzer hab'Steht mein Name riesengroß auf einem Ku'damm-Plakat</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,8 +661,59 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Songtext zu „Comer See“][Part 1: Bushido]Yeah! Wenn ich will, werf' ich Bomben auf dein StadttheaterDeine Mutter bläst für Kleingeld beim TaxifahrerDeine Schwester klaut bei Rewe ihre ZigarettenIn den Puff zu geh'n ist für dich ein FamilientreffenSie denken, dass sie Gangster sind mit ihrem TaschenmesserHalt die Hand auf und du wirst zu meinem AschenbecherWas für Signing? Als ob ich dich Hurensohn holeDu klebst wie Kaugummi an einer Louboutin-SohleLabels lösen sich jetzt auf, als wär'n sie BrausetabsFür deinen Missgeburtverein hat es sich ausgerapptManager, sie hängen an mein'n Eiern, so wie AkrobatenSind insolvent nach einem Brief meines AdvokatenMir scheint, als ob du kleine Ratte mit der Zeit vergisstJeder meiner Schritte zeigt euch, wie man unerreichbar istVom Bordstein sah ich zu der Skyline hinaufJahre später hab' ich meine eigene Skyline gekauft, Sonny Black[Hook: Bushido]Ich bin der, der deine Hunde jetzt ins Koma schlägtSonny an der MPC und kein Yoga-TapeWährend du noch ein paar Runden auf dem Mofa drehstHole ich mir eine Villa am Comer SeeIch bin der, der deine Hunde jetzt ins Koma schlägtSonny an der MPC und kein Yoga-TapeWährend du noch ein paar Runden auf dem Mofa drehstHole ich mir eine Villa am Comer See
-[Part 2: Animus &amp; Bushido]Ich lasse deine ganze Stadt mit einem Rap erstarr'nUnd Groupies stürmen die Konzerte wie das SEKFeministinnen wollen uns bloß ruinier'nWeil sie sauer sind, so wie wir Amazon dominier'n, ahLyrisch bin ich so bewandert wie der JakobswegDoch physisch fick' ich deine Alte und die Schlampe blästHunderte Releases, doch es mangelt ihn'n an QualitätHinterlasse Rapper als Patienten in der CharitéMach mir bitte nicht auf Bonze wegen PythonlederDenn in Wahrheit bist du Hundesohn mein TütenträgerMüde Augen, weil ich für das Album öfter Übersee warAls ein DüsenjägerJeder Typ will früher oder später Rapper sein und blutet für FameWieso ist dein Nacken rot nach 'nem Besuch im Café?Heute lauf' ich bundesweit auf jeder RadiofrequenzDer Soundtrack für deine Privatinsolvenz (yeah)[Hook: Bushido]Ich bin der, der deine Hunde jetzt ins Koma schlägtSonny an der MPC und kein Yoga-TapeWährend du noch ein paar Runden auf dem Mofa drehstHole ich mir eine Villa am Comer SeeIch bin der, der deine Hunde jetzt ins Koma schlägtSonny an der MPC und kein Yoga-TapeWährend du noch ein paar Runden auf dem Mofa drehstHole ich mir eine Villa am Comer See</t>
+          <t>[Songtext zu „Comer See“]
+[Part 1: Bushido]
+Yeah! Wenn ich will, werf' ich Bomben auf dein Stadttheater
+Deine Mutter bläst für Kleingeld beim Taxifahrer
+Deine Schwester klaut bei Rewe ihre Zigaretten
+In den Puff zu geh'n ist für dich ein Familientreffen
+Sie denken, dass sie Gangster sind mit ihrem Taschenmesser
+Halt die Hand auf und du wirst zu meinem Aschenbecher
+Was für Signing? Als ob ich dich Hurensohn hole
+Du klebst wie Kaugummi an einer Louboutin-Sohle
+Labels lösen sich jetzt auf, als wär'n sie Brausetabs
+Für deinen Missgeburtverein hat es sich ausgerappt
+Manager, sie hängen an mein'n Eiern, so wie Akrobaten
+Sind insolvent nach einem Brief meinesAdvokaten
+Mir scheint, als ob du kleine Ratte mit der Zeit vergisst
+Jeder meiner Schritte zeigt euch, wie man unerreichbar ist
+Vom Bordstein sah ich zu der Skyline hinauf
+Jahre später hab' ich meine eigene Skyline gekauft, Sonny Black
+[Hook: Bushido]
+Ich bin der, der deine Hunde jetzt ins Koma schlägt
+Sonny an der MPC und kein Yoga-Tape
+Während du noch ein paar Runden auf dem Mofa drehst
+Hole ich mir eine Villa am Comer See
+Ich bin der, der deine Hunde jetzt ins Koma schlägt
+Sonny an der MPC und kein Yoga-Tape
+Während du noch ein paar Runden auf dem Mofa drehst
+Hole ich mir eine Villa am Comer See
+[Part 2: Animus &amp;Bushido]
+Ich lasse deine ganze Stadt mit einem Rap erstarr'n
+Und Groupies stürmen die Konzerte wie das SEK
+Feministinnen wollen uns bloß ruinier'n
+Weil sie sauer sind, so wie wirAmazondominier'n, ah
+Lyrisch bin ich so bewandert wie der Jakobsweg
+Doch physisch fick' ich deine Alte und die Schlampe bläst
+Hunderte Releases, doch es mangelt ihn'n an Qualität
+Hinterlasse Rapper als Patienten in der Charité
+Mach mir bitte nicht auf Bonze wegen Pythonleder
+Denn in Wahrheit bist du Hundesohn mein Tütenträger
+Müde Augen, weil ich für das Album öfter Übersee war
+Als ein Düsenjäger
+Jeder Typ will früher oder später Rapper sein und blutet für Fame
+Wieso ist dein Nacken rot nach 'nem Besuch im Café?
+Heute lauf' ich bundesweit auf jeder Radiofrequenz
+Der Soundtrack für deine Privatinsolvenz(yeah)
+[Hook: Bushido]
+Ich bin der, der deine Hunde jetzt ins Koma schlägt
+Sonny an der MPC und kein Yoga-Tape
+Während du noch ein paar Runden auf dem Mofa drehst
+Hole ich mir eine Villa am Comer See
+Ich bin der, der deine Hunde jetzt ins Koma schlägt
+Sonny an der MPC und kein Yoga-Tape
+Während du noch ein paar Runden auf dem Mofa drehst
+Hole ich mir eine Villa am Comer See</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -621,9 +767,64 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Songtext zu „Okzident“][Hook: Animus &amp; Bushido]Yeah, und vom Orient bis OkzidentHalten alle Hurensöhne ihren Kopf gesenktBringen echten Rap zurück und das konsequentImmer noch, immer noch wie ein SchockmomentYeah, und vom Orient bis OkzidentHalten alle Hurensöhne ihren Kopf gesenktBringen echten Rap zurück und das konsequentImmer noch, immer noch wie ein Schockmoment[Part 1: Bushido]AMG customized, KaDeWe customizedDeutscher Hip-Hop lässt zu wünschen übrig wie ein FlaschengeistFrage: Sind die Tanzmoves kopiert von euch ArmleuchternOder selbst eingefall'n wie eure Kartenhäuser?Ihr seid in Videos auf Ketamin am Beyda zieh'nDoch eure Singles klingen noch beschissener als Laith Al-DeenSei dir sicher, wenn mich deine Mutter bei IKEA siehtHält sie ihr Gesicht vor meinen Schwanz wie bei 'ner Face-IDDas ist CCN, spar dir deine KlagewörterDu bist so wie Lena, eine ***** mit 'nem KnabenkörperGeld verdien'n ist für mich ein schneller ApparatDu musst Bus bau'n geh'n mit deinem ZellenkameradHab' Millionendeals mit Adidas und Nike am StartDu postest: „Danke für die Schuhe“, doch hast heimlich bezahltBin die Eins und seit damals bis jetzt auch unantastbarDu machst nichts, was ich nicht schon gestern gut gemacht hab'
-[Hook: Animus &amp; Bushido]Yeah, und vom Orient bis OkzidentHalten alle Hurensöhne ihren Kopf gesenktBringen echten Rap zurück und das konsequentImmer noch, immer noch wie ein SchockmomentYeah, und vom Orient bis OkzidentHalten alle Hurensöhne ihren Kopf gesenktBringen echten Rap zurück und das konsequentImmer noch, immer noch wie ein Schockmoment[Part 2: Animus]Und sie hören meine Stimme aus der Bose-BoxWas für ein Gefühl, wenn jeder Hater einen Bogen kotztFicke deinen Mode-Drop, mach mir nicht auf DrogenbossDenn in Wahrheit sind sie alle Pussy wie ein OzelotRede bitte nicht im Fachjargon von AktienfondsWenn du Hundesohn in Wahrheit einen Napf bekommstDenn war ich nett, hatten Hurensöhne kaum RespektJetzt wünschen sie sich, Gorex hätt mich niemals aufgewecktFick dein'n Sommerhit, der Winter ist daDeine Bitch ist in mein'n DMs drin und in Kommentar'nKing in den Charts und du Internet-StarMusst dein Kindergeld spar'n, um Klicks zu bezahl'n, ehFür eure Lügen gibt es leider kein'n ApplausViele Wege in die Hölle, aber keiner führt herausHab' allein an mich geglaubt wie 'n Biest, DadashGing als Sieger aus dem Beef, Dadash, yeah, yeah
-[Hook: Animus &amp; Bushido]Yeah, und vom Orient bis OkzidentHalten alle Hurensöhne ihren Kopf gesenktBringen echten Rap zurück und das konsequentImmer noch, immer noch wie ein SchockmomentYeah, und vom Orient bis OkzidentHalten alle Hurensöhne ihren Kopf gesenktBringen echten Rap zurück und das konsequentImmer noch, immer noch wie ein Schockmoment</t>
+          <t>[Songtext zu „Okzident“]
+[Hook: Animus &amp;Bushido]
+Yeah, und vom Orient bis Okzident
+Halten alle Hurensöhne ihren Kopf gesenkt
+Bringen echten Rap zurück und das konsequent
+Immer noch, immer noch wie ein Schockmoment
+Yeah, und vom Orient bis Okzident
+Halten alle Hurensöhne ihren Kopf gesenkt
+Bringen echten Rap zurück und das konsequent
+Immer noch, immer noch wie ein Schockmoment
+[Part 1: Bushido]
+AMG customized, KaDeWe customized
+Deutscher Hip-Hop lässt zu wünschen übrig wie ein Flaschengeist
+Frage: Sind die Tanzmoves kopiert von euch Armleuchtern
+Oder selbst eingefall'n wie eure Kartenhäuser?
+Ihr seid in Videos aufKetaminamBeydazieh'n
+Doch eure Singles klingen noch beschissener als Laith Al-Deen
+Sei dir sicher, wenn mich deine Mutter bei IKEA sieht
+Hält sie ihr Gesicht vor meinen Schwanz wie bei 'ner Face-ID
+Das ist CCN, spar dir deine Klagewörter
+Du bist so wie Lena, eine*****mit 'nem Knabenkörper
+Geld verdien'n ist für mich ein schneller Apparat
+Du musst Bus bau'n geh'n mit deinem Zellenkamerad
+Hab' Millionendeals mit Adidas und Nike am Start
+Du postest: „Danke für die Schuhe“, doch hast heimlich bezahlt
+Bin die Eins und seit damals bis jetzt auch unantastbar
+Du machst nichts, was ich nicht schon gestern gut gemacht hab'
+[Hook: Animus &amp;Bushido]
+Yeah,und vom Orient bis Okzident
+Halten alle Hurensöhne ihren Kopf gesenkt
+Bringen echten Rap zurück und das konsequent
+Immer noch, immer noch wie ein Schockmoment
+Yeah, und vom Orient bis Okzident
+Halten alle Hurensöhne ihren Kopf gesenkt
+Bringen echten Rap zurück und das konsequent
+Immer noch, immer noch wie ein Schockmoment
+[Part 2: Animus]
+Und sie hören meine Stimme aus der Bose-Box
+Was für ein Gefühl, wenn jeder Hater einen Bogen kotzt
+Ficke deinen Mode-Drop, mach mir nicht auf Drogenboss
+Denn in Wahrheit sind sie alle Pussy wie ein Ozelot
+Rede bitte nicht im Fachjargon von Aktienfonds
+Wenn du Hundesohn in Wahrheit einen Napf bekommst
+Denn war ich nett, hatten Hurensöhne kaum Respekt
+Jetzt wünschen sie sich, Gorex hätt mich niemals aufgeweckt
+Fick dein'n Sommerhit, der Winter ist da
+Deine Bitch ist in mein'n DMs drin und in Kommentar'n
+King in den Charts und du Internet-StarMusst dein Kindergeld spar'n, um Klicks zu bezahl'n, eh
+Für eure Lügen gibt es leider kein'n Applaus
+Viele Wege in die Hölle, aber keiner führt heraus
+Hab' allein an mich geglaubt wie 'n Biest, Dadash
+Ging als Sieger aus dem Beef, Dadash, yeah, yeah
+[Hook: Animus &amp; Bushido]
+Yeah, und vom Orient bis Okzident
+Halten alle Hurensöhne ihren Kopf gesenkt
+Bringen echten Rap zurück und das konsequent
+Immer noch, immer noch wie ein Schockmoment
+Yeah, und vom Orient bis OkzidentHalten alle Hurensöhne ihren Kopf gesenktBringen echten Rap zurück und das konsequentImmer noch, immer noch wie ein Schockmoment</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -677,8 +878,55 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Songtext zu „Gesegnet“][Part 1: Bushido]Jeder meiner Texte ist für sie 'ne GrabesredeSeh' die Zukunft, ohne dass ich ihre Karten leseWette gegen mich und du verlierst dein Hab und GutDenn ich habe immer noch Benzin in jedem AtemzugKönig aller Könige, ein Berg voller GoldDas Herz aus Beton, doch von Sternenstaub verfolgt, yeahMöchte nie wieder die Tränen meiner Kinder seh'nNie mehr vom Abzug meinen Finger nehm'nSchwarze Limousinen spiegeln Bäume im VorbeifahrenMeine Feinde wünschen sich vergebens meinen LeichnamSie nennen's Glück, doch ich weiß, das hier ist SchicksalUnd geht über alle meine Goldenen und Klickzahl'nOhne Sonny ist es wie 'ne SonnenfinsternisDoch ich komme in das Licht, trotz 'ner Tonne an GewichtAuf den Schultern, frag dich, wie viel Glück mir diese Scherben bring'nDenn das alles ist vorherbestimmt[Hook: Animus &amp; Bushido]Denk an mich, wenn es Zeit ist zu geh'n, dennIch hoffe jeden Tag, du weinst keine TränenDenn egal, wie viele Steine sie legenBin von Tausenden verflucht, doch von einem gesegnetDenk an mich, wenn es Zeit ist zu geh'n, dennIch hoffe jeden Tag, du weinst keine TränenDenn egal, wie viele Steine sie legenBin von Tausenden verflucht, doch von einem gesegnet
-[Part 2: Animus]Die Kilometer hinter mir, sie war'n ein harter WegSind so blind, als dass sie hinter die Fassade seh'nSie tun alles für den Straßenfame im AMGParallel trink' ich meinen schwarzen Tee am GardaseeSchreibe meine Zeilen mit dem Blut von meinen Rap-Rival'nUnd bleib' das letzte Orginal zwischen ReplikatenSätze brennen so, als wär die Booth voller LavaFahr' im Cabrio und höre „Una Palavra“Trage keine Westen mehr, die kugelsicher sindDenn ich weiß, dass Gott verhindern wird, dass Luzifer gewinntCCN 4, ja, ich trete dieses Erbe anGreife selber einmal nach den Stern'n und sterbe dannNie ein Teil dieser peinlichen SzeneOhne Staub auf meinen Knien, wenn es Zeit ist zu geh'nIch richte meine Segel nicht nach irgendeinem SternenbildDenn das alles ist vorherbestimmt[Hook: Animus &amp; Bushido]Denk an mich, wenn es Zeit ist zu geh'n, dennIch hoffe jeden Tag, du weinst keine TränenDenn egal, wie viele Steine sie legenBin von Tausenden verflucht, doch von einem gesegnetDenk an mich, wenn es Zeit ist zu geh'n, dennIch hoffe jeden Tag, du weinst keine TränenDenn egal, wie viele Steine sie legenBin von Tausenden verflucht, doch von einem gesegnet</t>
+          <t>[Songtext zu „Gesegnet“]
+[Part 1: Bushido]
+Jeder meiner Texte ist für sie 'ne Grabesrede
+Seh' die Zukunft, ohne dass ich ihre Karten lese
+Wette gegen mich und du verlierst dein Hab und Gut
+Denn ich habe immer noch Benzin in jedem Atemzug
+König aller Könige, ein Berg voller Gold
+Das Herz aus Beton, doch von Sternenstaub verfolgt, yeah
+Möchte nie wieder die Tränen meiner Kinder seh'n
+Nie mehr vom Abzug meinen Finger nehm'n
+Schwarze Limousinen spiegeln Bäume im Vorbeifahren
+Meine Feinde wünschen sich vergebens meinen Leichnam
+Sie nennen's Glück, doch ich weiß, das hier ist Schicksal
+Und geht über alle meine Goldenen und Klickzahl'n
+Ohne Sonny ist es wie 'ne Sonnenfinsternis
+Doch ich komme in das Licht, trotz 'ner Tonne an Gewicht
+Auf den Schultern, frag dich, wie viel Glück mir diese Scherben bring'n
+Denn das alles ist vorherbestimmt
+[Hook: Animus &amp;Bushido]
+Denk an mich, wenn es Zeit ist zu geh'n, denn
+Ich hoffe jeden Tag, du weinst keine Tränen
+Denn egal, wie viele Steine sie legen
+Bin von Tausenden verflucht, doch von einem gesegnet
+Denk an mich, wenn es Zeit ist zu geh'n, denn
+Ich hoffe jeden Tag, du weinst keine Tränen
+Denn egal, wie viele Steine sie legen
+Bin von Tausenden verflucht, doch von einem gesegnet
+[Part 2: Animus]
+Die Kilometer hinter mir, sie war'n ein harter Weg
+Sind so blind, als dass sie hinter die Fassade seh'n
+Sie tun alles für den Straßenfame im AMG
+Parallel trink' ich meinen schwarzen Tee am Gardasee
+Schreibe meine Zeilen mit dem Blut von meinen Rap-Rival'n
+Und bleib' das letzte Orginal zwischen Replikaten
+Sätze brennen so, als wär die Booth voller Lava
+Fahr' im Cabrio und höre „Una Palavra“
+Trage keine Westen mehr, die kugelsicher sind
+Denn ich weiß, dass Gott verhindern wird, dass Luzifer gewinnt
+CCN 4, ja, ich trete dieses Erbe anGreife selber einmal nach den Stern'n und sterbe dann
+Nie ein Teil dieser peinlichen Szene
+Ohne Staub auf meinen Knien, wenn es Zeit ist zu geh'n
+Ich richte meine Segel nicht nach irgendeinem Sternenbild
+Denn das alles ist vorherbestimmt
+[Hook: Animus &amp; Bushido]
+Denk an mich, wenn es Zeit ist zu geh'n, denn
+Ich hoffe jeden Tag, du weinst keine Tränen
+Denn egal, wie viele Steine sie legen
+Bin von Tausenden verflucht, doch von einem gesegnet
+Denk an mich, wenn es Zeit ist zu geh'n, dennIch hoffe jeden Tag, du weinst keine TränenDenn egal, wie viele Steine sie legenBin von Tausenden verflucht, doch von einem gesegnet</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -732,7 +980,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Songtext zu „Sonny Black (Interlude)“][Part]Yeah! Der Heavy-Hitter, Aura wie ein JediritterFühl' mich bei euch Möchtegern-Bushidos wie ein BabysitterRapper und Geschäftsmann in Einem, wie Hybridmotor'nZieh' dich ab in deinen Trikolor'n, 4er JordanMerk dir eins, mich zu besiegen ist ein Ahn'nmärchenDarum bleibt dir nichts übrig, als mit Schlamm zu werfenKomme nicht mit deinen Bräuchen oder Sitten anBin nicht interessiert, wenn man sich falten oder ficken kannLasse deutschen Hip-Hop vor mir knien auf dem HolzparkettUnd ficke bis es ihm gefällt, als wär' er Volker BeckMike Tyson Haarschnitte, Videos mit SonnenbänkenZählten schon lange vor deiner Zeit zu meinen MonumentenDu bist nur ein Hampelmann wie dieser Swizz BeatzRapp' wie die Sixties, Sieger per BlitzkriegUnd auf einmal schwitzen alle wie beim GrippefieberKontrollier' die Marionetten wie ein Strippenzieher[Outro]Yeah! Sonny Black</t>
+          <t>[Songtext zu „Sonny Black (Interlude)“]
+[Part]
+Yeah! Der Heavy-Hitter, Aura wie ein Jediritter
+Fühl' mich bei euch Möchtegern-Bushidos wie ein Babysitter
+Rapper und Geschäftsmann in Einem, wie Hybridmotor'n
+Zieh' dich ab in deinen Trikolor'n, 4er Jordan
+Merk dir eins, mich zu besiegen ist ein Ahn'nmärchen
+Darum bleibt dir nichts übrig, als mit Schlamm zu werfen
+Komme nicht mit deinen Bräuchen oder Sitten an
+Bin nicht interessiert, wenn man sich falten oder ficken kann
+Lasse deutschen Hip-Hop vor mir knien auf dem HolzparkettUnd ficke bis es ihm gefällt, als wär' er Volker Beck
+Mike Tyson Haarschnitte, Videos mit Sonnenbänken
+Zählten schon lange vor deiner Zeit zu meinen Monumenten
+Du bist nur ein Hampelmann wie dieser Swizz Beatz
+Rapp' wie die Sixties, Sieger per Blitzkrieg
+Und auf einmal schwitzen alle wie beim Grippefieber
+Kontrollier' die Marionetten wie ein Strippenzieher
+[Outro]
+Yeah! Sonny Black</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -786,8 +1052,56 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Songtext zu „Lichter der Stadt“][Intro: Bushido]Yeah![Part 1: Bushido]Ich lass' die Straßen alle brennen mit 'nem ZweizeilerUnd sie machen große Augen wie ein EyelinerJeder hat gezweifelt, dass ich wieder komm' und alles fickeAber knien vor dem König, so wie AdeligeMeine Vita ist präsent, auch ohne PromophaseUnd der „Daddy deines Daddys“ ist mein KosenameDie Frage ist nicht, ob ich irgendwen gemacht hab'Hab' an dich geglaubt, als dich jeder ausgelacht hatMeine zwanzig Jahre ficken deinen SzenehypeDenn mein'n Namen kennt man bis in alle EwigkeitHabe deutschen Gangsta-Rap paraphrasiertMeine Stimme lässt das Blut in ihren Adern gefrier'nSetz' die Messlatte hoch, ihr die Messlatte tiefWie ich rapp' auf den Beat, grenzt an MagieGebe keine Interviews für euer DrecksmagazinDenn ein Krümel meines Tellers ist ein Festmahl für sie[Hook: Bushido &amp; Animus]Auf der Straße, den Gossen und BlocksLeben zwischen Dealern, den Huren und CopsWieder eine Scheibe, die zerbricht in der NachtSo spiegelt sich das Feuer in den Lichtern der StadtDu hörst uns auf der Straße, den Gossen und BlocksLeben zwischen Dealern, den Huren und CopsWieder eine Scheibe, die zerbricht in der NachtSo spiegelt sich das Feuer in den Lichtern der Stadt
-[Part 2: Animus]Ah! Ich lass' die Straßen alle brennen mit 'nem ZweizeilerFahr' mit Sonny durch das Land in einem NightlinerErreiche Herzen wie 'ne KardiologieMeine Straßenpoesie löst die ChaostheorieTank' den Wagen voll Benzin und genieße diese AbendruheDenn am Tag ist zu viel Wut in meiner MagengrubeHab' gelernt, diese Menschen sind so groteskSie lieben dich in 'nem Sarg, doch hassen dich auf dem PodestUnd jeder will, dass wir uns weiterhin bekriegenDenn zu hassen ist für sie so viel leichter als der FriedenTun auf Bruder, doch ich merkte ganz alleine, in der harten ZeitDeckt dir keiner deinen Rücken wie ein AbendkleidSie wünschten alle, dass ich unten wärUnd ihre Art kommt nicht von ungefährDenn wenn der Neid in ihren Herzen wie ein Funke währtWürde jeder Rapper grade leuchten, wenn es dunkel wärDenn sie hör'n uns—[Hook: Bushido &amp; Animus]Auf der Straße, den Gossen und BlocksLeben zwischen Dealern, den Huren und CopsWieder eine Scheibe, die zerbricht in der NachtSo spiegelt sich das Feuer in den Lichtern der StadtDu hörst uns auf der Straße, den Gossen und BlocksLeben zwischen Dealern, den Huren und CopsWieder eine Scheibe, die zerbricht in der NachtSo spiegelt sich das Feuer in den Lichtern der Stadt</t>
+          <t>[Songtext zu „Lichter der Stadt“]
+[Intro: Bushido]
+Yeah!
+[Part 1: Bushido]
+Ich lass' die Straßen alle brennen mit 'nem Zweizeiler
+Und sie machen große Augen wie ein Eyeliner
+Jeder hat gezweifelt, dass ich wieder komm' und alles ficke
+Aber knien vor dem König, so wie Adelige
+Meine Vita ist präsent, auch ohne Promophase
+Und der „Daddy deines Daddys“ ist mein KosenameDie Frage ist nicht, ob ich irgendwen gemacht hab'Hab' an dich geglaubt, als dich jeder ausgelacht hat
+Meine zwanzig Jahre ficken deinen SzenehypeDenn mein'n Namen kennt man bis in alle Ewigkeit
+Habe deutschen Gangsta-Rap paraphrasiert
+Meine Stimme lässt das Blut in ihren Adern gefrier'n
+Setz' die Messlatte hoch, ihr die Messlatte tief
+Wie ich rapp' auf den Beat, grenzt an Magie
+Gebe keine Interviews für euer Drecksmagazin
+Denn ein Krümel meines Tellers ist ein Festmahl für sie
+[Hook: Bushido &amp;Animus]
+Auf der Straße, den Gossen und Blocks
+Leben zwischen Dealern, den Huren und Cops
+Wieder eine Scheibe, die zerbricht in der Nacht
+So spiegelt sich das Feuer in den Lichtern der Stadt
+Du hörst uns auf der Straße, den Gossen und Blocks
+Leben zwischen Dealern, den Huren und Cops
+Wieder eine Scheibe, die zerbricht in der Nacht
+So spiegelt sich das Feuer in den Lichtern der Stadt
+[Part 2: Animus]
+Ah! Ich lass' die Straßen alle brennen mit 'nem Zweizeiler
+Fahr' mit Sonny durch das Land in einem Nightliner
+Erreiche Herzen wie 'ne Kardiologie
+Meine Straßenpoesie löst die Chaostheorie
+Tank' den Wagen voll Benzin und genieße diese Abendruhe
+Denn am Tag ist zu viel Wut in meiner Magengrube
+Hab' gelernt, diese Menschen sind so grotesk
+Sie lieben dich in 'nem Sarg, doch hassen dich auf dem Podest
+Und jeder will, dass wir uns weiterhin bekriegen
+Denn zu hassen ist für sie so viel leichter als der Frieden
+Tun auf Bruder, doch ich merkte ganz alleine, in der harten Zeit
+Deckt dir keiner deinen Rücken wie ein Abendkleid
+Sie wünschten alle, dass ich unten wär
+Und ihre Art kommt nicht von ungefähr
+Denn wenn der Neid in ihren Herzen wie ein Funke währt
+Würde jeder Rapper grade leuchten, wenn es dunkel wär
+Denn sie hör'n uns—
+[Hook: Bushido &amp; Animus]
+Auf der Straße, den Gossen und Blocks
+Leben zwischen Dealern, den Huren und Cops
+Wieder eine Scheibe, die zerbricht in der Nacht
+So spiegelt sich das Feuer in den Lichtern der Stadt
+Du hörst uns auf der Straße, den Gossen und BlocksLeben zwischen Dealern, den Huren und CopsWieder eine Scheibe, die zerbricht in der NachtSo spiegelt sich das Feuer in den Lichtern der Stadt</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -841,9 +1155,67 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Songtext zu „Ghetto Electro“][Intro]"Plen—"[Hook: Scratched Samples &amp; Animus]"Plenty that, tha-tha-thatPlenty that wanna be me""But they never come close to""OG", "Why you can't fuck with me?""Plenty that wanna be me""Who am I?", "I am the MVP""They come around, but they never come close to" (yeah)"Can we please have a moment of truth?"[Part 1: Animus]Back im Renn'n – check! Rap verbrenn'n – check!Flizzys Herz gebrochen wegen CCN – check!Ficke Journalisten, denn sie sind nur TheoretikerIch ging für Rap 'nen Weg, der hunderttausend Kilometer warBlut, Schweiß und Trän'n, dein Gehate hier ist gratisLauter Hurensöhne, so wie *****Haten, so wie Fotzen ohne ObjektivitätIch ging Top-ten ganz allein und geh' auf Eins mit der LPOb dein Label dich jetzt droppt, ist in der Schwebe wie ein KolibriWährenddessen bieten Majors mir einen Million-DealDiese Szene machte mich so abgebrüht und kühlSag' ich „Hurensohn“, darf jeder sich jetzt angesprochen fühl'nNenn mich Deutschraps MVPBring mir jeden aus der Champions LeagueUnd ich lass' sie zittern wie ein TamburinGhetto Electro, der Donner auf dem BeatUnd die Snare klatscht härter als Conor bei Khabib – Peace!
-[Hook: Scratched Samples]"Plenty that, tha-tha-thatPlenty that wanna be me""But they never come close to""OG", "Why you can't fuck with me?""Plenty that wanna be me""Who am I?", "I am the MVP""They come around, but they never come close to""Can we please have a moment of truth?"[Part 2: Bushido]Yeah! Sie wollen, dass ich Namen nenne, wenn ich Rapper disseDoch meine Ignoranz bestraft sie, so wie MessersticheFicke die gesamte Szene einfach mit 'nem PferdeschwanzAlles Hurensöhne ohne irgendeine RelevanzMache, was ich will, der ganze Rest erübrigt sich35.000 Boxen lügen nichtIch kenne die Intrigen, sie hassen und sie liebenDeine Lieblingsrapper finden alle statt in meinen DMsFür meine Familie begrabe ich hier jedenNoch lachen diese Hunde, doch schon bald müssen sie fleh'n„King Bushido“, mit welchen Gesicht denkst duDass ein Mann wie ich über euch Missgeburten spricht?Lebende Legende dieser BundesrepublikMit jeder meiner Singles wirst du Hundesohn geficktIhr seid alle Lachnummern, doch mir mangelt's an HumorDenn ich stehe für Berlin wie das Brandenburger Tor – Bushido!
-[Hook: Scratched Samples]"Plenty that, tha-tha-thatPlenty that wanna be me""But they never come close to""OG", "Why you can't fuck with me?""Plenty that wanna be me""Who am I?", "I am the MVP""They come around, but they never come close to""Can we please have a moment of truth?"</t>
+          <t>[Songtext zu „Ghetto Electro“]
+[Intro]
+"Plen—"
+[Hook: Scratched Samples &amp;Animus]
+"Plenty that, tha-tha-thatPlenty that wanna be me"
+"But they never come close to"
+"OG", "Why you can't fuck with me?"
+"Plenty that wanna be me"
+"Who am I?", "I am the MVP"
+"They come around, but they never come close to"(yeah)
+"Can we please have a moment of truth?"
+[Part 1: Animus]
+Back im Renn'n – check! Rap verbrenn'n – check!Flizzys Herz gebrochen wegen CCN – check!
+Ficke Journalisten, denn sie sind nur Theoretiker
+Ich ging für Rap 'nen Weg, der hunderttausend Kilometer war
+Blut, Schweiß und Trän'n, dein Gehate hier ist gratisLauter Hurensöhne, so wie *****
+Haten, so wie Fotzen ohne Objektivität
+Ich ging Top-ten ganz allein und geh' auf Eins mit der LP
+Ob dein Label dich jetzt droppt, ist in der Schwebe wie ein Kolibri
+Währenddessen bieten Majors mir einen Million-Deal
+Diese Szene machte mich so abgebrüht und kühl
+Sag' ich „Hurensohn“, darf jeder sich jetzt angesprochen fühl'n
+Nenn mich Deutschraps MVP
+Bring mir jeden aus der Champions League
+Und ich lass' sie zittern wie ein Tamburin
+Ghetto Electro, der Donner auf dem Beat
+Und die Snare klatscht härter als Conor bei Khabib – Peace!
+[Hook: Scratched Samples]
+"Plenty that, tha-tha-that
+Plenty that wanna be me"
+"But they never come close to"
+"OG", "Why you can't fuck with me?"
+"Plenty that wanna be me"
+"Who am I?", "I am the MVP"
+"They come around, but they never come close to"
+"Can we please have a moment of truth?"
+[Part 2: Bushido]
+Yeah! Sie wollen, dass ich Namen nenne, wenn ich Rapper disseDoch meine Ignoranz bestraft sie, so wie Messerstiche
+Ficke die gesamte Szene einfach mit 'nem Pferdeschwanz
+Alles Hurensöhne ohne irgendeine Relevanz
+Mache, was ich will, der ganze Rest erübrigt sich
+35.000 Boxen lügen nicht
+Ich kenne die Intrigen, sie hassen und sie lieben
+Deine Lieblingsrapper finden alle statt in meinen DMs
+Für meine Familie begrabe ich hier jeden
+Noch lachen diese Hunde, doch schon bald müssen sie fleh'n
+„King Bushido“,mit welchen Gesicht denkst du
+Dass ein Mann wie ich über euch Missgeburten spricht?
+Lebende Legende dieser Bundesrepublik
+Mit jeder meiner Singles wirst du Hundesohn gefickt
+Ihr seid alle Lachnummern, doch mir mangelt's an Humor
+Denn ich stehe für Berlin wie das Brandenburger Tor – Bushido!
+[Hook: Scratched Samples]
+"Plenty that, tha-tha-that
+Plenty that wanna be me"
+"But they never come close to"
+"OG", "Why you can't fuck with me?"
+"Plenty that wanna be me"
+"Who am I?", "I am the MVP"
+"They come around, but they never come close to"
+"Can we please have a moment of truth?"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -897,8 +1269,56 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Songtext zu „Unterste Schublade“][Part 1: Bushido]Yeah! Ghettorap hin, Ghettorap herBring mir diese Missgeburten alle her, yeahWas sind hunderttausend Rapper gegen diesen einen Prototyp?Vor mir werden eure Eier kleiner als ein MolekülFicke deine Schlampe, die auf Bauchwichse stehtDeutsche Rapper sind nur Nutten wie auf kaufmich.deSteige aus dem Coupé in die Bank, weil ich Scheine macheMitarbeiter tragen meine Bündel in der ReisetascheJeder Ziegenficker macht mir jetzt auf FriedensrichterDoch ihr seid alle für den Arsch, so wie Panini-StickerIhr und ich ist wie Solarium gegen KaribikwetterRolex ist noch voller mit Baguettes als ein Pariser BäckerWest-Berlin-Crew, das Ghetto im BlutNeunundneunzig Prozent aller Rapper sind schwulWünsche deiner Mutter nach paar Schüssen wieder BeileidDoch tarn' es vor Gericht als meine künstlerische Freiheit[Hook: Bushido &amp; Animus]Yeah, pack' euch in die unterste SchubladeWeil ich von euch Hunden genug habeLass' euch in Sekunden in Blut badenUnd schicke deiner fetten Mutter eine GrußkarteYeah, pack' euch in die unterste SchubladeWeil ich von euch Hunden genug habeLass' euch in Sekunden in Blut badenUnd schicke deiner fetten Mutter eine Grußkarte
-[Part 2: Animus]Ah! Jeder Hampelmann dreht Videos am TelefonIch wünsche diesen Mero-Klons Style und auch ein MetronomAuf einmal rappen alle deepes Zeug im RadioUnd machen nach, so wie Sonnys „Sonnenbank Flavour“-FlowErzähl mir nicht, du willst den Markt überroll'nDenn du hast, was sie woll'n, so wie harzige Knoll'nMach auf Pimp, aber der ekelhafte Arsch deiner Oll'nIst in Leggings deformierter als die arktischen Scholl'n, ahSag, wen willst du imponier'n in deinen Tommy-Jeans?Deutscher Hip-Hop kommt mir vor, als wär' es Shopping QueenDamals Tupac, heute machen sie auf Elton JohnEure Alben klingen so wie dreizehnmal derselbe SongKein Ornithologe, doch komm' mit WüstenadlerDer dich wie Don Corleone von deinen Füßen ballertWährend du mit Kommilitonen über 'ne Prüfung laberstMach' ich bald mit Songs 'ne Millionen, als wär' ich Müslüm Baba[Hook: Bushido &amp; Animus]Yeah, pack' euch in die unterste SchubladeWeil ich von euch Hunden genug habeLass' euch in Sekunden in Blut badenUnd schicke deiner fetten Mutter eine GrußkarteYeah, pack' euch in die unterste SchubladeWeil ich von euch Hunden genug habeLass' euch in Sekunden in Blut badenUnd schicke deiner fetten Mutter eine Grußkarte</t>
+          <t>[Songtext zu „Unterste Schublade“]
+[Part 1: Bushido]
+Yeah! Ghettorap hin, Ghettorap her
+Bring mir diese Missgeburten alle her, yeah
+Was sind hunderttausend Rapper gegen diesen einen Prototyp?
+Vor mir werden eure Eier kleiner als ein Molekül
+Ficke deine Schlampe, die auf Bauchwichse steht
+Deutsche Rapper sind nur Nutten wie auf kaufmich.de
+Steige aus dem Coupé in die Bank, weil ich Scheine mache
+Mitarbeiter tragen meine Bündel in der Reisetasche
+Jeder Ziegenficker macht mir jetzt auf Friedensrichter
+Doch ihr seid alle für den Arsch, so wie Panini-Sticker
+Ihr und ich ist wie Solarium gegen Karibikwetter
+Rolex ist noch voller mit Baguettes als ein Pariser Bäcker
+West-Berlin-Crew, das Ghetto im Blut
+Neunundneunzig Prozent aller Rapper sind schwul
+Wünsche deiner Mutter nach paar Schüssen wieder Beileid
+Doch tarn' es vor Gericht als meine künstlerische Freiheit
+[Hook: Bushido &amp;Animus]
+Yeah, pack' euch in die unterste Schublade
+Weil ich von euch Hunden genug habe
+Lass' euch in Sekunden in Blut baden
+Und schicke deiner fetten Mutter eine Grußkarte
+Yeah, pack' euch in die unterste Schublade
+Weil ich von euch Hunden genug habe
+Lass' euch in Sekunden in Blut baden
+Und schicke deiner fetten Mutter eine Grußkarte
+[Part 2: Animus]
+Ah! Jeder Hampelmann dreht Videos am Telefon
+Ich wünsche diesen Mero-Klons Style und auch ein Metronom
+Auf einmal rappen alle deepes Zeug im Radio
+Und machen nach, so wie Sonnys „Sonnenbank Flavour“-Flow
+Erzähl mir nicht, du willst den Markt überroll'n
+Denn du hast, was sie woll'n, so wie harzige Knoll'n
+Mach auf Pimp, aber der ekelhafte Arsch deiner Oll'n
+Ist in Leggings deformierter als die arktischen Scholl'n, ah
+Sag, wen willst du imponier'n in deinen Tommy-Jeans?
+Deutscher Hip-Hop kommt mir vor, als wär' es Shopping Queen
+Damals Tupac, heute machen sie auf Elton John
+Eure Alben klingen so wie dreizehnmal derselbe Song
+Kein Ornithologe, doch komm' mit Wüstenadler
+Der dich wie Don Corleone von deinen Füßen ballert
+Während du mit Kommilitonen über 'ne Prüfung laberst
+Mach' ich bald mit Songs 'ne Millionen, als wär' ich Müslüm Baba
+[Hook: Bushido &amp; Animus]
+Yeah, pack' euch in die unterste Schublade
+Weil ich von euch Hunden genug habe
+Lass' euch in Sekunden in Blut baden
+Und schicke deiner fetten Mutter eine Grußkarte
+Yeah, pack' euch in die unterste SchubladeWeil ich von euch Hunden genug habeLass' euch in Sekunden in Blut badenUnd schicke deiner fetten Mutter eine Grußkarte</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -952,9 +1372,60 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Songtext zu „Renegade“][Hook: Bushido &amp; Animus]Renegade, wir sind Deutschrap-HeavyweightsFicken Mütter, und zwar everydayAlle salutier'n vor dem Namen BushidoAnimus, CCN4 ist Ground ZeroRenegade, wir sind Deutschrap-HeavyweightsFicken Mütter, und zwar everydayAlle salutier'n vor dem Namen Bushido (ah)Animus, CCN4 ist Ground Zero[Part 1: Animus]Deutschrap Starterpack: Rücken zahl'n, Fake, Neid, große FressenHunde, die an Tischen reden wollen, doch vom Boden essenHätte nie gedacht, mit echtem Hip-Hop mal die Charts zu stürm'nDenn ihr macht zwanzigmal denselben Song ohne SchamgefühlImmer noch der Gleiche mit dem Vollbart wie ein AttentäterHinterlasse Massengräber, so als wär ich Vlad, der PfählerModus Mio voll mit Reggae, Techno oder MacarenaZeige keinem von euch mein Gesicht, als wär ich CataleyaAll die Lutscher sind krasse Mucker, sobald sie Schutz hab'nOptisch alles das gleiche für mich wie Salz und ZuckerPunks wie Ashton Kutcher erzählen, sie wären Haschisch-PusherAber singen für Großfamilien, so wie Raschid MoussaStimme auf dem Beat wie die Smith &amp; zu der WessonIhr allergrößter Fehler war es, mich zu unterschätzenHier geht es nicht um Geld oder Gold oder etwas HypeEuer Fall ist Gerechtigkeit, ah
-[Hook: Bushido &amp; Animus]Renegade, wir sind Deutschrap-HeavyweightsFicken Mütter, und zwar everydayAlle salutier'n vor dem Namen BushidoAnimus, CCN4 ist Ground ZeroRenegade, wir sind Deutschrap-HeavyweightsFicken Mütter, und zwar everydayAlle salutier'n vor dem Namen BushidoAnimus, CCN4 ist Ground Zero[Part 2: Bushido]Yeah, tausende Awards, Gold und Platin an den VillawändenRap-Journalisten sieht man sich mit einem Strick erhäng'nBundesweit bekannt als ein Mogul in diesem Rap-GeschäftFler dafür bekannt, dass 'ne Karotte in sei'm Rektum stecktDeine Missgeburten feiern sich auf CentbeträgeStehen rum in irgendwelchen Streams und führen SelbstgesprächeSonny Black nimmt euch Fotzen eure GangsterehreDu wirst mich nicht ficken, Dicka, wie in einer RentnereheEure Mütter in der ProstitutionSind ein offenes Geheimnis – OxymoronIhr dachtet, mich zu leaken wäre so wie 'ne BeerdigungDoch jede Wahrheit, die ans Licht kommt, macht euch nur noch mehr zum HundJede YouTube-Bitch macht auf Cardi BDoch eure Liebe zur Musik ist nur ein AlibiWenn ich will, blamier' ich dich mit einem EndreimNicht Frank White, sondern Frank weint, yeah
-[Hook: Bushido &amp; Animus]Renegade, wir sind Deutschrap-HeavyweightsFicken Mütter, und zwar everydayAlle salutier'n vor dem Namen BushidoAnimus, CCN4 ist Ground ZeroRenegade, wir sind Deutschrap-HeavyweightsFicken Mütter, und zwar everydayAlle salutier'n vor dem Namen BushidoAnimus, CCN4 ist Ground Zero</t>
+          <t>[Songtext zu „Renegade“]
+[Hook: Bushido &amp;Animus]
+Renegade, wir sind Deutschrap-Heavyweights
+Ficken Mütter, und zwar everyday
+Alle salutier'n vor dem Namen Bushido
+Animus, CCN4 ist Ground Zero
+Renegade, wir sind Deutschrap-Heavyweights
+Ficken Mütter, und zwar everyday
+Alle salutier'n vor dem Namen Bushido (ah)
+Animus, CCN4 ist Ground Zero
+[Part 1: Animus]
+Deutschrap Starterpack: Rücken zahl'n, Fake, Neid, große FressenHunde, die an Tischen reden wollen, doch vom Boden essen
+Hätte nie gedacht, mit echtem Hip-Hop mal die Charts zu stürm'n
+Denn ihr macht zwanzigmal denselben Song ohne Schamgefühl
+Immer noch der Gleiche mit dem Vollbart wie ein Attentäter
+Hinterlasse Massengräber, so als wär ich Vlad, der Pfähler
+Modus Mio voll mit Reggae, Techno oder Macarena
+Zeige keinem von euch mein Gesicht, als wär ich Cataleya
+All die Lutscher sind krasse Mucker, sobald sie Schutz hab'n
+Optisch alles das gleiche für mich wie Salz und Zucker
+Punks wie Ashton Kutcher erzählen, sie wären Haschisch-Pusher
+Aber singen für Großfamilien, so wie Raschid Moussa
+Stimme auf dem Beat wie die Smith &amp; zu der Wesson
+Ihr allergrößter Fehler war es, mich zu unterschätzen
+Hier geht es nicht um Geld oder Gold oder etwas Hype
+Euer Fall ist Gerechtigkeit, ah
+[Hook: Bushido &amp;Animus]
+Renegade, wir sind Deutschrap-Heavyweights
+Ficken Mütter, und zwar everyday
+Alle salutier'n vor dem Namen Bushido
+Animus, CCN4 ist Ground Zero
+Renegade, wir sind Deutschrap-Heavyweights
+Ficken Mütter, und zwar everyday
+Alle salutier'n vor dem Namen Bushido
+Animus, CCN4 ist Ground Zero
+[Part 2: Bushido]
+Yeah, tausende Awards, Gold und Platin an den Villawänden
+Rap-Journalisten sieht man sich mit einem Strick erhäng'n
+Bundesweit bekannt als ein Mogul in diesem Rap-GeschäftFler dafür bekannt, dass 'ne Karotte in sei'm Rektum steckt
+Deine Missgeburten feiern sich auf Centbeträge
+Stehen rum in irgendwelchen Streams und führen Selbstgespräche
+Sonny Black nimmt euch Fotzen eure Gangsterehre
+Du wirst mich nicht ficken, Dicka, wie in einer Rentnerehe
+Eure Mütter in der ProstitutionSind ein offenes Geheimnis – Oxymoron
+Ihr dachtet, mich zu leaken wäre so wie 'ne BeerdigungDoch jede Wahrheit, die ans Licht kommt, macht euch nur noch mehr zum Hund
+Jede YouTube-Bitch macht auf Cardi BDoch eure Liebe zur Musik ist nur ein Alibi
+Wenn ich will, blamier' ich dich mit einem Endreim
+Nicht Frank White, sondern Frank weint, yeah
+[Hook: Bushido &amp; Animus]
+Renegade, wir sind Deutschrap-Heavyweights
+Ficken Mütter, und zwar everyday
+Alle salutier'n vor dem Namen Bushido
+Animus, CCN4 ist Ground Zero
+Renegade, wir sind Deutschrap-HeavyweightsFicken Mütter, und zwar everydayAlle salutier'n vor dem Namen BushidoAnimus, CCN4 ist Ground Zero</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1008,8 +1479,59 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Songtext zu „Prinzipien“][Part 1: Bushido]Ich ließ zu viele Fremde in meine Familie reinBis ich merkte, dass am Ende nur Familie bleibtWar bereit, mein Leben lang mein Hab und Gut zu teil'nDoch auch das schien diesen Menschen nicht genug zu seinIch könnte mich einfach ergeben ohne WiderstandDoch am Ziel, das ich mir setzte, käm ich niemals anHätte jede Menge Kumpel in der SzeneHätt' ich den Charakter dieser Hunde in der SzeneJeder ist cool, solang ich ihn'n eine Brücke baueAber lassen dich alleine in dem TrümmerhaufenWäre immer noch ein Teil eurer GangHätte ich nicht das Bedürfnis, an der Freiheit zu häng'nStatt in irgend'nem Café zu chill'n, mit Karten unter StraßendiebenSchau' ich meinem Sohn im Garten zu beim DrachenfliegenDenn würd ich jemals wieder diesen Menschen blind vertrau'nKönnte ich keine Sekunde in den Spiegel schau'n[Hook: Bushido &amp; Animus]Machte paar Million'n mit ImmobilienAber dennoch habe ich meine PrinzipienBlühe auf, wenn ich Musik mache, wie LilienAber dennoch habe ich meine PrinzipienStelle nichts in meinem Leben vor FamilieAber dennoch habe ich meine PrinzipienManche Menschen sind so giftig wie ReptilienAber dennoch habe ich meine Prinzipien
-[Part 2: Animus]Ich hätte längst schon eine Gold- oder 'ne PlatinplatteWürd ich rappen, so wie all die AffenÜber Alk und paffen statt über Dinge, die unser Leben prägenMach' das Fenster auf und seh' die kleinen Kinder Yayo nehm'nWäre weiter, würd ich handeln wie die DiplomatenStatt meine Meinung einfach so in dein Gesicht zu sagenWär ein Ehrenmann für sie, wenn ich 'ne Waffe nehm'Doch sterbe, bevor ich meine Mutter zwinge, mich im Knast zu seh'nIch könnte glauben, was sie jetzt über Bushido sagenDoch entschied mich, dass ich einfach mal Bushido frageIch könnte glauben, was die Medien über ein'n redenSo wie die ganzen kleinen Haterkids auf meinem WegHatte keinen, der mir Mut machteAls mich die Wut packte, sie woll'n BlutracheDoch alles, was ich brauch', sind lediglich paar Loop-TakteUm mit den'n schaff' ich meine eigenen Fußstapfen[Hook: Bushido &amp; Animus]Machte paar Million'n mit ImmobilienAber dennoch habe ich meine PrinzipienBlühe auf, wenn ich Musik mache, wie LilienAber dennoch habe ich meine PrinzipienStelle nichts in meinem Leben vor FamilieAber dennoch habe ich meine PrinzipienManche Menschen sind so giftig wie ReptilienAber dennoch habe ich meine Prinzipien</t>
+          <t>[Songtext zu „Prinzipien“]
+[Part 1: Bushido]
+Ich ließ zu viele Fremde in meine Familie rein
+Bis ich merkte, dass am Ende nur Familie bleibt
+War bereit, mein Leben lang mein Hab und Gut zu teil'n
+Doch auch das schien diesen Menschen nicht genug zu sein
+Ich könnte mich einfach ergeben ohne Widerstand
+Doch am Ziel, das ich mir setzte, käm ich niemals an
+Hätte jede Menge Kumpel in der Szene
+Hätt' ich den Charakter dieser Hunde in der Szene
+Jeder ist cool, solang ich ihn'n eine Brücke baue
+Aber lassen dich alleine in dem Trümmerhaufen
+Wäre immer noch ein Teil eurer Gang
+Hätte ich nicht das Bedürfnis, an der Freiheit zu häng'n
+Statt in irgend'nem Café zu chill'n, mit Karten unter Straßendieben
+Schau' ich meinem Sohn im Garten zu beim Drachenfliegen
+Denn würd ich jemals wieder diesen Menschen blind vertrau'n
+Könnte ich keine Sekunde in den Spiegel schau'n
+[Hook: Bushido &amp;Animus]
+Machte paar Million'n mit Immobilien
+Aber dennoch habe ich meine Prinzipien
+Blühe auf, wenn ich Musik mache, wie Lilien
+Aber dennoch habe ich meine Prinzipien
+Stelle nichts in meinem Leben vor Familie
+Aber dennoch habe ich meine Prinzipien
+Manche Menschen sind so giftig wie Reptilien
+Aber dennoch habe ich meine Prinzipien
+[Part 2: Animus]
+Ich hätte längst schon eine Gold- oder 'ne Platinplatte
+Würd ich rappen, so wie all die Affen
+Über Alk und paffen statt über Dinge, die unser Leben prägen
+Mach' das Fenster auf und seh' die kleinen Kinder Yayo nehm'n
+Wäre weiter, würd ich handeln wie die Diplomaten
+Statt meine Meinung einfach so in dein Gesicht zu sagen
+Wär ein Ehrenmann für sie, wenn ich 'ne Waffe nehm'
+Doch sterbe, bevor ich meine Mutter zwinge, mich im Knast zu seh'n
+Ich könnte glauben, was sie jetzt über Bushido sagen
+Doch entschied mich, dass ich einfach mal Bushido frage
+Ich könnte glauben, was die Medien über ein'n reden
+So wie die ganzen kleinen Haterkids auf meinem Weg
+Hatte keinen, der mir Mut machte
+Als mich die Wut packte, sie woll'n Blutrache
+Doch alles, was ich brauch', sind lediglich paar Loop-Takte
+Um mit den'n schaff' ich meine eigenen Fußstapfen
+[Hook: Bushido &amp; Animus]
+Machte paar Million'n mit Immobilien
+Aber dennoch habe ich meine Prinzipien
+Blühe auf, wenn ich Musik mache, wie Lilien
+Aber dennoch habe ich meine Prinzipien
+Stelle nichts in meinem Leben vor Familie
+Aber dennoch habe ich meine Prinzipien
+Manche Menschen sind so giftig wie Reptilien
+Aber dennoch habe ich meine Prinzipien</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1063,8 +1585,59 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Songtext zu „Sternenstaub“][Part 1: Animus]Egal, was wir auch machen in den schweren ZeitenUnsre Spiegel lachen, während unsre Seelen wein'nWenn der Griff nach etwas Hoffnung deine Hand verbrenntIst dein Traum wie eine Narbe auf dem HandgelenkEs sind die Hungergames, weil nur einer überlebtUnd bist du klein, kann es sein, dass sie dich überseh'nFlüster' leise in die Hände, wenn ich bet', dennIch hab' Angst, dass der Teufel hör'n könnte, was mir fehlt, BruderIch verstecke meine Trän'n, BruderWeil hier draußen nur die Starken überleben, BruderZwischen Hassen oder Lieben ist 'ne schmale SpurDoch die Musik verbindet uns wie eine NabelschnurWenn du Kummer hast, reiß' ich mir das Herz rausDenn du kannst meines haben, wenn du mal ein Herz brauchstTrag' dich in den Himmel, ganz allein den Berg raufUnd zerfalle, wenn du oben bist, zu Sternstaub[Hook: Animus]Wenn du weinst, ja, dann schieb es auf den SternstaubWenn du fällst, landest du auf diesem SternstaubBist du allein, erschein' ich dir als SternstaubSchreib' mein'n Nam'n in den Himmel mit dem SternstaubWenn du weinst, ja, dann schieb es auf den SternstaubWenn du fällst, landest du auf diesem SternstaubBist du allein, erschein' ich dir als SternstaubSchreib' mein'n Nam'n in den Himmel mit dem Sternstaub
-[Part 2: Bushido]Viele Menschen wollen seh'n, wie ich leideDoch es sind die gleichen Flügel, die mich immer noch begleitenManchmal ist der Himmel für dich schwarz, doch ein Funke scheintNimm meine Hand und ich führ' dich aus der DunkelheitSchafft es damals in der Schule schon nicht ruhig zu sitzenUnd nicht aufhör'n meinen Nam'n in den Stuhl zu ritzenHier sitzt Bushido, der eines Tages so bekannt istDass er den Stuhl, auf dem er sitzt, in einen Thron verwandeltHalt den Kopf hoch, wenn jeder ständig auf dich zeigtDenn auf Trauer folgt die Freude mit dem Lauf der ZeitManchmal hört dich keiner, ganz egal, wie laut du schreistEs ist die Traurigkeit, die Tränen in die Augen treibtWenn du Kummer hast, reiß' ich mir das Herz rausDenn du kannst meines haben, wenn du mal ein Herz brauchstTrag' dich in den Himmel, ganz allein den Berg raufUnd zerfalle, wenn du oben bist, zu Sternstaub[Hook: Animus]Wenn du weinst, ja, dann schieb es auf den SternstaubWenn du fällst, landest du auf diesem SternstaubBist du allein, erschein' ich dir als SternstaubSchreib' mein'n Nam'n in den Himmel mit dem SternstaubWenn du weinst, ja, dann schieb es auf den SternstaubWenn du fällst, landest du auf diesem SternstaubBist du allein, erschein' ich dir als SternstaubSchreib' mein'n Nam'n in den Himmel mit dem Sternstaub</t>
+          <t>[Songtext zu „Sternenstaub“]
+[Part 1: Animus]
+Egal, was wir auch machen in den schweren Zeiten
+Unsre Spiegel lachen, während unsre Seelen wein'n
+Wenn der Griff nach etwas Hoffnung deine Hand verbrennt
+Ist dein Traum wie eine Narbe auf dem Handgelenk
+Es sind die Hungergames, weil nur einer überlebt
+Und bist du klein, kann es sein, dass sie dich überseh'n
+Flüster' leise in die Hände, wenn ich bet', denn
+Ich hab' Angst, dass der Teufel hör'n könnte, was mir fehlt, Bruder
+Ich verstecke meine Trän'n, Bruder
+Weil hier draußen nur die Starken überleben, Bruder
+Zwischen Hassen oder Lieben ist 'ne schmale Spur
+Doch die Musik verbindet uns wie eine Nabelschnur
+Wenn du Kummer hast, reiß' ich mir das Herz raus
+Denn du kannst meines haben, wenn du mal ein Herz brauchst
+Trag' dich in den Himmel, ganz allein den Berg rauf
+Und zerfalle, wenn du oben bist, zu Sternstaub
+[Hook: Animus]
+Wenn du weinst, ja, dann schieb es auf den Sternstaub
+Wenn du fällst, landest du auf diesem Sternstaub
+Bist du allein, erschein' ich dir als Sternstaub
+Schreib' mein'n Nam'n in den Himmel mit dem Sternstaub
+Wenn du weinst, ja, dann schieb es auf den Sternstaub
+Wenn du fällst, landest du auf diesem Sternstaub
+Bist du allein, erschein' ich dir als Sternstaub
+Schreib' mein'n Nam'n in den Himmel mit dem Sternstaub
+[Part 2: Bushido]
+Viele Menschen wollen seh'n, wie ich leide
+Doch es sind die gleichen Flügel, die mich immer noch begleiten
+Manchmal ist der Himmel für dich schwarz, doch ein Funke scheint
+Nimm meine Hand und ich führ' dich aus der Dunkelheit
+Schafft es damals in der Schule schon nicht ruhig zu sitzen
+Und nicht aufhör'n meinen Nam'n in den Stuhl zu ritzen
+Hier sitzt Bushido, der eines Tages so bekannt ist
+Dass er den Stuhl, auf dem er sitzt, in einen Thron verwandelt
+Halt den Kopf hoch, wenn jeder ständig auf dich zeigt
+Denn auf Trauer folgt die Freude mit dem Lauf der Zeit
+Manchmal hört dich keiner, ganz egal, wie laut du schreist
+Es ist die Traurigkeit, die Tränen in die Augen treibt
+Wenn du Kummer hast, reiß' ich mir das Herz raus
+Denn du kannst meines haben, wenn du mal ein Herz brauchst
+Trag' dich in den Himmel, ganz allein den Berg rauf
+Und zerfalle, wenn du oben bist, zu Sternstaub
+[Hook: Animus]
+Wenn du weinst, ja, dann schieb es auf den Sternstaub
+Wenn du fällst, landest du auf diesem Sternstaub
+Bist du allein, erschein' ich dir als Sternstaub
+Schreib' mein'n Nam'n in den Himmel mit dem Sternstaub
+Wenn du weinst, ja, dann schieb es auf den Sternstaub
+Wenn du fällst, landest du auf diesem Sternstaub
+Bist du allein, erschein' ich dir als Sternstaub
+Schreib' mein'n Nam'n in den Himmel mit dem Sternstaub</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1118,7 +1691,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Songtext zu „Epilog“][Part 1: Animus]Ah! Sag' den Leuten, ich bin immer noch kein Sneaker-Freak!Meine Seele ist der Pulsschlag auf diesen BeatsViele hab'n gebetet, dass ich falle und im Keim erstick'Mein Triumph ist der Beweis, dass Gott auf meiner Seite istHabe wie ein Mann gelacht, habe wie ein Mann geweintWürde gar nichts ändern, könnte ich in die VergangenheitHab' zu vielen falschen Menschen leider meine Hand gereichtUnd zu spät gemerkt, dass ihr alle Schlangen seidWenn Blicke töten könnten, hätt ich einen Sarg dabeiDenn ich habe kein Wahl, außer stark zu seinReise um die Welt, an keinem Ort mehr zuhausMein allergrößter Fehler war, auf euer Wort zu vertrau'nGeh' in die Geschichte ein als einer dieser TotgesagtenWurde für paar Likes und Kommentare in der Not verratenKarma für die, die auf Gott schwörten und gelogen habenGieße mit den Tränen meiner Mutter einen Rosengarten[Instrumental][Part 2: Bushido]Yeah! Mir fließt immer noch das Ghetto durch die PulsadernBleib' für jeden in der Szene einfach unnahbarKomme auf die Bühne und es warten paar TausendAtemberaubend wie StadienbautenSie wollten mir alle verwehren, auf mich stolz zu seinImmer, wenn ein Sonnenstrahl durch die Wolken scheintSchreib' die Zeilen auf, meine Hände sind vernarbtMeine Stimme bricht durch ihre Wände wie ein SchlagCCN4, mehr als nur paar Koka-LinesMeine Prinzipien, sie haben einen hohen PreisBrauche weder Wahrsagerinnen noch 'ne ZeitmaschineMeine Aura schluckt den Horizont, wenn ich einmarschiereHab' euch Hunde all die Jahre ganz allein ernährtBesser, wenn ihr leise wärt, fühle mich wie HeisenbergDenn jedes Mal, wenn sie dachten, dass ich scheitern werd'Kam ich wieder, dieses Mal mit einem Meisterwerk</t>
+          <t>[Songtext zu „Epilog“]
+[Part 1: Animus]
+Ah! Sag' den Leuten, ich bin immer noch kein Sneaker-Freak!
+Meine Seele ist der Pulsschlag auf diesen Beats
+Viele hab'n gebetet, dass ich falle und im Keim erstick'
+Mein Triumph ist der Beweis, dass Gott auf meiner Seite ist
+Habe wie ein Mann gelacht, habe wie ein Mann geweint
+Würde gar nichts ändern, könnte ich in die Vergangenheit
+Hab' zu vielen falschen Menschen leider meine Hand gereicht
+Und zu spät gemerkt, dass ihr alle Schlangen seid
+Wenn Blicke töten könnten, hätt ich einen Sarg dabei
+Denn ich habe kein Wahl, außer stark zu sein
+Reise um die Welt, an keinem Ort mehr zuhaus
+Mein allergrößter Fehler war, auf euer Wort zu vertrau'n
+Geh' in die Geschichte ein als einer dieser Totgesagten
+Wurde für paar Likes und Kommentare in der Not verraten
+Karma für die, die auf Gott schwörten und gelogen haben
+Gieße mit den Tränen meiner Mutter einen Rosengarten
+[Instrumental]
+[Part 2: Bushido]
+Yeah! Mir fließt immer noch das Ghetto durch die Pulsadern
+Bleib' für jeden in der Szene einfach unnahbar
+Komme auf die Bühne und es warten paar Tausend
+Atemberaubend wie Stadienbauten
+Sie wollten mir alle verwehren, auf mich stolz zu sein
+Immer, wenn ein Sonnenstrahl durch die Wolken scheint
+Schreib' die Zeilen auf, meine Hände sind vernarbt
+Meine Stimme bricht durch ihre Wände wie ein Schlag
+CCN4, mehr als nur paar Koka-Lines
+Meine Prinzipien, sie haben einen hohen Preis
+Brauche weder Wahrsagerinnen noch 'ne Zeitmaschine
+Meine Aura schluckt den Horizont, wenn ich einmarschiere
+Hab' euch Hunde all die Jahre ganz allein ernährt
+Besser, wenn ihr leise wärt, fühle mich wie Heisenberg
+Denn jedes Mal, wenn sie dachten, dass ich scheitern werd'
+Kam ich wieder, dieses Mal mit einem Meisterwerk</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
